--- a/Problem Statement 1 (Excel)/Part 2/Financial Dashboard.xlsx
+++ b/Problem Statement 1 (Excel)/Part 2/Financial Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedan\Downloads\StepI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vedan\Downloads\StepI\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{638DE997-C42A-47A8-8343-3EA2204695B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C317FBF3-1605-45B6-B007-6491999531AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3956,7 +3956,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-1ED6-400F-886A-1752A597330D}"/>
+                <c16:uniqueId val="{00000001-F983-40F3-AB8A-AE4A42B1F518}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -3980,7 +3980,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-1ED6-400F-886A-1752A597330D}"/>
+                <c16:uniqueId val="{00000003-F983-40F3-AB8A-AE4A42B1F518}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4004,7 +4004,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-1ED6-400F-886A-1752A597330D}"/>
+                <c16:uniqueId val="{00000005-F983-40F3-AB8A-AE4A42B1F518}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4028,7 +4028,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-1ED6-400F-886A-1752A597330D}"/>
+                <c16:uniqueId val="{00000007-F983-40F3-AB8A-AE4A42B1F518}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4052,7 +4052,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-1ED6-400F-886A-1752A597330D}"/>
+                <c16:uniqueId val="{00000009-F983-40F3-AB8A-AE4A42B1F518}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -4109,6 +4109,29 @@
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Cost analysis Pie chart'!$B$6:$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Cost of Goods Sold</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Advertising</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Payroll</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Interest</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Cost analysis Pie chart'!$C$6:$C$10</c:f>
@@ -4135,7 +4158,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-9633-47DE-B73A-045A397EFAE4}"/>
+              <c16:uniqueId val="{0000000A-F983-40F3-AB8A-AE4A42B1F518}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9074,22 +9097,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>326570</xdr:colOff>
+      <xdr:colOff>402771</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
+      <xdr:rowOff>141514</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>119742</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{270D48D3-3B97-43DD-90BD-D73A9A271F90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC9FBA2-55EC-49CA-9C45-644FC09AAC27}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14793,7 +14816,7 @@
   <dimension ref="A1:Z1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
